--- a/public/template-import-user.xlsx
+++ b/public/template-import-user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\koperasi\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F456D7CA-EB87-4BA1-922E-F66CF95ECD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65190033-2780-4336-8BED-2F73E6CF4855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5033CF9-0DC9-45E1-B776-62F5B4079E9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5033CF9-0DC9-45E1-B776-62F5B4079E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t>Jenis Anggota</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Nomor Hp</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Mutholib</t>
+  </si>
+  <si>
+    <t>abdul@gmail.com</t>
+  </si>
+  <si>
+    <t>mutholib@gmail.com</t>
+  </si>
+  <si>
+    <t>abdul</t>
+  </si>
+  <si>
+    <t>mutholib</t>
+  </si>
+  <si>
+    <t>asn</t>
+  </si>
+  <si>
+    <t>non-asn</t>
   </si>
 </sst>
 </file>
@@ -447,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9BB734-69C4-4495-A837-E774880D458A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,29 +489,70 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2">
+        <v>899923231</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3">
+        <v>8123238881</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BCE48C2B-F914-4DE6-8507-84790B8CA36D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CAE5B84F-9BDE-45D0-8A2C-5358A58A77C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>